--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/15/seed4/result_data_KNN.xlsx
@@ -564,7 +564,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.388</v>
+        <v>-7.995</v>
       </c>
     </row>
     <row r="10">
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.440000000000001</v>
+        <v>-8.377000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -718,7 +718,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.286</v>
+        <v>-7.691000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.114000000000001</v>
+        <v>-7.866000000000001</v>
       </c>
     </row>
     <row r="28">
@@ -928,7 +928,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.5</v>
+        <v>-7.888</v>
       </c>
     </row>
     <row r="36">
@@ -1404,7 +1404,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.6</v>
+        <v>-7.679</v>
       </c>
     </row>
     <row r="70">
@@ -1502,7 +1502,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.409999999999999</v>
+        <v>-7.943000000000001</v>
       </c>
     </row>
     <row r="77">
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.316000000000001</v>
+        <v>-8.077</v>
       </c>
     </row>
     <row r="79">
@@ -1586,7 +1586,7 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.077999999999999</v>
+        <v>-8.170000000000002</v>
       </c>
     </row>
     <row r="83">
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.484</v>
+        <v>-8.103</v>
       </c>
     </row>
     <row r="84">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.092000000000001</v>
+        <v>-6.976999999999999</v>
       </c>
     </row>
     <row r="94">
